--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3240.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3240.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.567601613315672</v>
+        <v>1.147215366363525</v>
       </c>
       <c r="B1">
-        <v>2.521306310395521</v>
+        <v>1.052607536315918</v>
       </c>
       <c r="C1">
-        <v>2.920824092657683</v>
+        <v>0.8628063797950745</v>
       </c>
       <c r="D1">
-        <v>3.496117970708006</v>
+        <v>0.8764113187789917</v>
       </c>
       <c r="E1">
-        <v>2.102428750075879</v>
+        <v>0.9741549491882324</v>
       </c>
     </row>
   </sheetData>
